--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCA2D4-58B2-4625-991D-90467DC7B655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45494D75-4415-4104-9C38-1404A3731C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -578,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -906,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -938,7 +941,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="3">
@@ -950,12 +953,12 @@
       <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
+      <c r="E2" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3">
         <v>2226</v>
       </c>
@@ -965,12 +968,12 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3">
         <v>2110</v>
       </c>
@@ -980,12 +983,12 @@
       <c r="D4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
+      <c r="E4" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3">
         <v>2231</v>
       </c>
@@ -995,12 +998,12 @@
       <c r="D5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3">
         <v>1376</v>
       </c>
@@ -1010,12 +1013,12 @@
       <c r="D6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3">
         <v>2248</v>
       </c>
@@ -1025,12 +1028,12 @@
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3">
         <v>2232</v>
       </c>
@@ -1040,12 +1043,12 @@
       <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3">
         <v>1503</v>
       </c>
@@ -1055,12 +1058,12 @@
       <c r="D9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3">
         <v>10247</v>
       </c>
@@ -1070,12 +1073,12 @@
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3">
         <v>10246</v>
       </c>
@@ -1085,12 +1088,12 @@
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3">
         <v>1588</v>
       </c>
@@ -1100,12 +1103,12 @@
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="3">
-        <v>7</v>
+      <c r="E12" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3">
         <v>2222</v>
       </c>
@@ -1115,12 +1118,12 @@
       <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3">
         <v>10248</v>
       </c>
@@ -1130,12 +1133,12 @@
       <c r="D14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3">
         <v>572</v>
       </c>
@@ -1145,12 +1148,12 @@
       <c r="D15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="3">
@@ -1162,12 +1165,12 @@
       <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3">
-        <v>5</v>
+      <c r="E16" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3">
         <v>1896</v>
       </c>
@@ -1177,12 +1180,12 @@
       <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="3">
-        <v>27</v>
+      <c r="E17" s="6">
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3">
         <v>1865</v>
       </c>
@@ -1192,12 +1195,12 @@
       <c r="D18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3">
         <v>1973</v>
       </c>
@@ -1207,12 +1210,12 @@
       <c r="D19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="3">
-        <v>20</v>
+      <c r="E19" s="6">
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3">
         <v>1775</v>
       </c>
@@ -1222,12 +1225,12 @@
       <c r="D20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="3">
-        <v>19</v>
+      <c r="E20" s="6">
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3">
         <v>1567</v>
       </c>
@@ -1237,12 +1240,12 @@
       <c r="D21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="3">
-        <v>20</v>
+      <c r="E21" s="6">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3">
         <v>2251</v>
       </c>
@@ -1252,12 +1255,12 @@
       <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="3">
-        <v>32</v>
+      <c r="E22" s="6">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3">
         <v>1963</v>
       </c>
@@ -1267,12 +1270,12 @@
       <c r="D23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3">
         <v>1505</v>
       </c>
@@ -1282,12 +1285,12 @@
       <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="3">
-        <v>40</v>
+      <c r="E24" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3">
         <v>2200</v>
       </c>
@@ -1297,12 +1300,12 @@
       <c r="D25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="3">
-        <v>23</v>
+      <c r="E25" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3">
         <v>1438</v>
       </c>
@@ -1312,12 +1315,12 @@
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="3">
-        <v>81</v>
+      <c r="E26" s="6">
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="3">
@@ -1329,12 +1332,12 @@
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
+      <c r="E27" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3">
         <v>856</v>
       </c>
@@ -1344,12 +1347,12 @@
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="3">
-        <v>2</v>
+      <c r="E28" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3">
         <v>1883</v>
       </c>
@@ -1359,12 +1362,12 @@
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="3">
-        <v>4</v>
+      <c r="E29" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3">
         <v>2140</v>
       </c>
@@ -1374,12 +1377,12 @@
       <c r="D30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
+      <c r="E30" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3">
         <v>1248</v>
       </c>
@@ -1389,12 +1392,12 @@
       <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
+      <c r="E31" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3">
         <v>1719</v>
       </c>
@@ -1404,12 +1407,12 @@
       <c r="D32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="4">
         <v>1821</v>
       </c>
@@ -1419,12 +1422,12 @@
       <c r="D33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="3">
-        <v>20</v>
+      <c r="E33" s="6">
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3">
         <v>2253</v>
       </c>
@@ -1434,12 +1437,12 @@
       <c r="D34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3">
         <v>1712</v>
       </c>
@@ -1449,12 +1452,12 @@
       <c r="D35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="3">
-        <v>3</v>
+      <c r="E35" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3">
         <v>2242</v>
       </c>
@@ -1464,12 +1467,12 @@
       <c r="D36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="3">
         <v>2221</v>
       </c>
@@ -1479,12 +1482,12 @@
       <c r="D37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="3">
-        <v>1382</v>
+      <c r="E37" s="6">
+        <v>1007</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3">
         <v>1392</v>
       </c>
@@ -1494,12 +1497,12 @@
       <c r="D38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B39" s="3">
@@ -1511,12 +1514,12 @@
       <c r="D39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="3">
-        <v>29</v>
+      <c r="E39" s="6">
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="4">
         <v>1065</v>
       </c>
@@ -1526,12 +1529,12 @@
       <c r="D40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="4">
         <v>1809</v>
       </c>
@@ -1541,12 +1544,12 @@
       <c r="D41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="3">
         <v>1806</v>
       </c>
@@ -1556,12 +1559,12 @@
       <c r="D42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="3">
-        <v>69</v>
+      <c r="E42" s="6">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="3">
         <v>1777</v>
       </c>
@@ -1571,12 +1574,12 @@
       <c r="D43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="3">
-        <v>687</v>
+      <c r="E43" s="6">
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="4">
         <v>1281</v>
       </c>
@@ -1586,12 +1589,12 @@
       <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="4">
         <v>2217</v>
       </c>
@@ -1601,12 +1604,12 @@
       <c r="D45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="3">
         <v>1927</v>
       </c>
@@ -1616,12 +1619,12 @@
       <c r="D46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="3">
-        <v>63</v>
+      <c r="E46" s="6">
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="3">
         <v>1974</v>
       </c>
@@ -1631,12 +1634,12 @@
       <c r="D47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="3">
-        <v>176</v>
+      <c r="E47" s="6">
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="3">
         <v>1437</v>
       </c>
@@ -1646,12 +1649,12 @@
       <c r="D48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>26</v>
+      <c r="E48" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="3">
@@ -1663,12 +1666,12 @@
       <c r="D49" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="3">
-        <v>26</v>
+      <c r="E49" s="6">
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="3">
         <v>1259</v>
       </c>
@@ -1678,12 +1681,12 @@
       <c r="D50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="3">
-        <v>7</v>
+      <c r="E50" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="3">
         <v>2195</v>
       </c>
@@ -1693,12 +1696,12 @@
       <c r="D51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="3">
-        <v>7</v>
+      <c r="E51" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B52" s="3">
@@ -1710,12 +1713,12 @@
       <c r="D52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="3">
         <v>1826</v>
       </c>
@@ -1725,12 +1728,12 @@
       <c r="D53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="3">
         <v>1111</v>
       </c>
@@ -1740,12 +1743,12 @@
       <c r="D54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="3">
         <v>1083</v>
       </c>
@@ -1755,12 +1758,12 @@
       <c r="D55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="3">
         <v>1020</v>
       </c>
@@ -1770,12 +1773,12 @@
       <c r="D56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3">
         <v>1386</v>
       </c>
@@ -1785,7 +1788,7 @@
       <c r="D57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1793,12 +1796,12 @@
       <c r="A58" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="5">
         <f>SUM(E2:E57)</f>
-        <v>2779</v>
+        <v>4767</v>
       </c>
     </row>
   </sheetData>

--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45494D75-4415-4104-9C38-1404A3731C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8EA14-90F1-441E-946E-A0144DE1C82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>工号</t>
   </si>
@@ -400,6 +400,12 @@
   <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.146.123 </t>
   </si>
 </sst>
 </file>
@@ -907,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,7 +960,7 @@
         <v>54</v>
       </c>
       <c r="E2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1059,7 +1065,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1166,7 +1172,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1181,7 +1187,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="6">
-        <v>139</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1211,7 +1217,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="6">
-        <v>291</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1226,7 +1232,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="6">
-        <v>432</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1241,7 +1247,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="6">
-        <v>105</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1256,7 +1262,7 @@
         <v>74</v>
       </c>
       <c r="E22" s="6">
-        <v>210</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1348,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="E28" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1363,7 +1369,7 @@
         <v>81</v>
       </c>
       <c r="E29" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1393,7 +1399,7 @@
         <v>83</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1423,7 +1429,7 @@
         <v>85</v>
       </c>
       <c r="E33" s="6">
-        <v>426</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1483,66 +1489,66 @@
         <v>89</v>
       </c>
       <c r="E37" s="6">
-        <v>1007</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3">
+        <v>2065</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="3">
         <v>1392</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="3">
         <v>806</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="4">
-        <v>1065</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E40" s="6">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="4">
-        <v>1809</v>
+        <v>1065</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
@@ -1550,59 +1556,59 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
-      <c r="B42" s="3">
-        <v>1806</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>44</v>
+      <c r="B42" s="4">
+        <v>1809</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="6">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="3">
-        <v>1777</v>
+        <v>1806</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E43" s="6">
-        <v>218</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
-      <c r="B44" s="4">
-        <v>1281</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>46</v>
+      <c r="B44" s="3">
+        <v>1777</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="4">
-        <v>2217</v>
+        <v>1281</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
@@ -1610,123 +1616,123 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
-      <c r="B46" s="3">
-        <v>1927</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>48</v>
+      <c r="B46" s="4">
+        <v>2217</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="6">
-        <v>453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
       <c r="B47" s="3">
+        <v>1927</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="6">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="3">
         <v>1974</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="6">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="3">
+      <c r="E48" s="6">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="3">
         <v>1437</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
+      <c r="E49" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B50" s="3">
         <v>805</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="6">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="3">
+      <c r="E50" s="6">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="12"/>
+      <c r="B51" s="3">
         <v>1259</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="3">
+      <c r="E51" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="3">
         <v>2195</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B53" s="3">
         <v>709</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="3">
-        <v>1826</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
@@ -1735,13 +1741,13 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="3">
-        <v>1111</v>
+        <v>1826</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
@@ -1750,13 +1756,13 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="3">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
@@ -1765,13 +1771,13 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="3">
-        <v>1020</v>
+        <v>1083</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
@@ -1780,39 +1786,54 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="7"/>
+      <c r="B58" s="3">
         <v>1386</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="5">
-        <f>SUM(E2:E57)</f>
-        <v>4767</v>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="5">
+        <f>SUM(E2:E58)</f>
+        <v>9606</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A26"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A50:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8EA14-90F1-441E-946E-A0144DE1C82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA0749A-5293-4708-9F83-DEB23D73ADDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>工号</t>
   </si>
@@ -49,30 +49,18 @@
     <t>杨毅</t>
   </si>
   <si>
-    <t>孙爽</t>
-  </si>
-  <si>
     <t>熊阳</t>
   </si>
   <si>
     <t>范飞飞</t>
   </si>
   <si>
-    <t>邓子豪</t>
-  </si>
-  <si>
-    <t>姚周</t>
-  </si>
-  <si>
     <t>余经猷</t>
   </si>
   <si>
     <t>阳家亮</t>
   </si>
   <si>
-    <t>刘惠承</t>
-  </si>
-  <si>
     <t>徐冬梅</t>
   </si>
   <si>
@@ -124,12 +112,6 @@
     <t>张迎泽</t>
   </si>
   <si>
-    <t>郭帅</t>
-  </si>
-  <si>
-    <t>王会闯</t>
-  </si>
-  <si>
     <t>杨海超</t>
   </si>
   <si>
@@ -199,30 +181,18 @@
     <t>192.168.170.75</t>
   </si>
   <si>
-    <t>192.168.146.48</t>
-  </si>
-  <si>
     <t>192.168.170.131</t>
   </si>
   <si>
     <t>192.168.146.93</t>
   </si>
   <si>
-    <t>192.168.170.190</t>
-  </si>
-  <si>
-    <t>192.168.170.155</t>
-  </si>
-  <si>
     <t>192.168.170.44</t>
   </si>
   <si>
     <t>192.168.22.47</t>
   </si>
   <si>
-    <t>192.168.170.76</t>
-  </si>
-  <si>
     <t>192.168.22.55</t>
   </si>
   <si>
@@ -272,12 +242,6 @@
   </si>
   <si>
     <t>192.168.146.217</t>
-  </si>
-  <si>
-    <t>192.168.22.177</t>
-  </si>
-  <si>
-    <t>192.168.22.65</t>
   </si>
   <si>
     <t>192.168.22.157</t>
@@ -913,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -948,7 +912,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3">
         <v>555</v>
@@ -957,11 +921,9 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
@@ -972,11 +934,9 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -987,11 +947,9 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
@@ -1002,11 +960,9 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
@@ -1017,823 +973,639 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="3">
-        <v>2248</v>
+        <v>2232</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="3">
-        <v>2232</v>
+        <v>1503</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="3">
-        <v>1503</v>
+        <v>1588</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="3">
-        <v>10247</v>
+        <v>2222</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3">
-        <v>10246</v>
+        <v>572</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="B12" s="3">
-        <v>1588</v>
+        <v>815</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="3">
-        <v>2222</v>
+        <v>1896</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="3">
-        <v>10248</v>
+        <v>1865</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3">
-        <v>572</v>
+        <v>1973</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="3">
-        <v>815</v>
+        <v>1775</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="3">
-        <v>1896</v>
+        <v>1567</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="6">
-        <v>803</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="3">
-        <v>1865</v>
+        <v>2251</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="3">
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6">
-        <v>519</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="3">
-        <v>1775</v>
+        <v>1505</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="6">
-        <v>660</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="3">
-        <v>1567</v>
+        <v>2200</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="6">
-        <v>233</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3">
-        <v>2251</v>
+        <v>1438</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="6">
-        <v>772</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="B23" s="3">
-        <v>1963</v>
+        <v>850</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="3">
-        <v>1505</v>
+        <v>856</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="3">
-        <v>2200</v>
+        <v>1883</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3">
-        <v>1438</v>
+        <v>2140</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="6">
-        <v>208</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="3">
-        <v>850</v>
+        <v>1248</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="3">
-        <v>856</v>
+        <v>2253</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="6">
-        <v>13</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="3">
-        <v>1883</v>
+        <v>1712</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="6">
-        <v>14</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="3">
-        <v>2140</v>
+        <v>2242</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="6">
-        <v>4</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="3">
-        <v>1248</v>
+        <v>2221</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="6">
-        <v>7</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="3">
-        <v>1719</v>
+        <v>2065</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="3">
+        <v>1392</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="4">
-        <v>1821</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="3">
+        <v>806</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="6">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="3">
-        <v>2253</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
-      <c r="B35" s="3">
-        <v>1712</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>37</v>
+      <c r="B35" s="4">
+        <v>1065</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
-      <c r="B36" s="3">
-        <v>2242</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
+      <c r="B36" s="4">
+        <v>1809</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="12"/>
       <c r="B37" s="3">
-        <v>2221</v>
+        <v>1806</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="6">
-        <v>2174</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
       <c r="B38" s="3">
-        <v>2065</v>
+        <v>1777</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="3">
-        <v>1392</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="4">
+        <v>1281</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="3">
-        <v>806</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="4">
+        <v>2217</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="6">
-        <v>217</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
-      <c r="B41" s="4">
-        <v>1065</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="3">
+        <v>1927</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
-      <c r="B42" s="4">
-        <v>1809</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3">
+        <v>1974</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="3">
-        <v>1806</v>
+        <v>1437</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="6">
-        <v>74</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="B44" s="3">
-        <v>1777</v>
+        <v>805</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="6">
-        <v>302</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
-      <c r="B45" s="4">
-        <v>1281</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="3">
+        <v>1259</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="6">
+        <v>90</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="3">
+        <v>2195</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="3">
+        <v>709</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3">
+        <v>1826</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="7"/>
+      <c r="B49" s="3">
+        <v>1111</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="7"/>
+      <c r="B50" s="3">
+        <v>1083</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="7"/>
+      <c r="B51" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="7"/>
+      <c r="B52" s="3">
+        <v>1386</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5">
+        <f>SUM(E2:E52)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
-      <c r="B46" s="4">
-        <v>2217</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
-      <c r="B47" s="3">
-        <v>1927</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="6">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-      <c r="B48" s="3">
-        <v>1974</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="6">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="3">
-        <v>1437</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="3">
-        <v>805</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
-      <c r="B51" s="3">
-        <v>1259</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="3">
-        <v>2195</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="3">
-        <v>709</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="7"/>
-      <c r="B54" s="3">
-        <v>1826</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="7"/>
-      <c r="B55" s="3">
-        <v>1111</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="7"/>
-      <c r="B56" s="3">
-        <v>1083</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="7"/>
-      <c r="B57" s="3">
-        <v>1020</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="7"/>
-      <c r="B58" s="3">
-        <v>1386</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="5">
-        <f>SUM(E2:E58)</f>
-        <v>9606</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA0749A-5293-4708-9F83-DEB23D73ADDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014586F-A6D9-48BC-8DBF-58DBB75C6C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>工号</t>
   </si>
@@ -370,12 +370,19 @@
   </si>
   <si>
     <t xml:space="preserve">192.168.146.123 </t>
+  </si>
+  <si>
+    <t>人均次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -548,9 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +576,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E52"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,7 +912,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -909,9 +928,12 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="3">
@@ -923,10 +945,16 @@
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <f>SUM(E2:E11)/10</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
       <c r="B3" s="3">
         <v>2226</v>
       </c>
@@ -936,10 +964,13 @@
       <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
       <c r="B4" s="3">
         <v>2110</v>
       </c>
@@ -949,10 +980,13 @@
       <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
       <c r="B5" s="3">
         <v>2231</v>
       </c>
@@ -962,10 +996,13 @@
       <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
       <c r="B6" s="3">
         <v>1376</v>
       </c>
@@ -975,10 +1012,13 @@
       <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
       <c r="B7" s="3">
         <v>2232</v>
       </c>
@@ -988,10 +1028,13 @@
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
       <c r="B8" s="3">
         <v>1503</v>
       </c>
@@ -1001,10 +1044,13 @@
       <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
       <c r="B9" s="3">
         <v>1588</v>
       </c>
@@ -1014,10 +1060,13 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
       <c r="B10" s="3">
         <v>2222</v>
       </c>
@@ -1027,10 +1076,13 @@
       <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
       <c r="B11" s="3">
         <v>572</v>
       </c>
@@ -1040,10 +1092,13 @@
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="3">
@@ -1055,10 +1110,16 @@
       <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <f>SUM(E12:E22)/11</f>
+        <v>165.72727272727272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
       <c r="B13" s="3">
         <v>1896</v>
       </c>
@@ -1068,10 +1129,13 @@
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="E13" s="5">
+        <v>89</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
       <c r="B14" s="3">
         <v>1865</v>
       </c>
@@ -1081,10 +1145,13 @@
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
       <c r="B15" s="3">
         <v>1973</v>
       </c>
@@ -1094,10 +1161,13 @@
       <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="E15" s="5">
+        <v>114</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
       <c r="B16" s="3">
         <v>1775</v>
       </c>
@@ -1107,10 +1177,13 @@
       <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="E16" s="5">
+        <v>739</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
       <c r="B17" s="3">
         <v>1567</v>
       </c>
@@ -1120,10 +1193,13 @@
       <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="E17" s="5">
+        <v>75</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
       <c r="B18" s="3">
         <v>2251</v>
       </c>
@@ -1133,10 +1209,13 @@
       <c r="D18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+      <c r="E18" s="5">
+        <v>394</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
       <c r="B19" s="3">
         <v>1963</v>
       </c>
@@ -1146,10 +1225,13 @@
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
       <c r="B20" s="3">
         <v>1505</v>
       </c>
@@ -1159,10 +1241,13 @@
       <c r="D20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
       <c r="B21" s="3">
         <v>2200</v>
       </c>
@@ -1172,10 +1257,13 @@
       <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
       <c r="B22" s="3">
         <v>1438</v>
       </c>
@@ -1185,10 +1273,13 @@
       <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="E22" s="5">
+        <v>411</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="3">
@@ -1200,10 +1291,16 @@
       <c r="D23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <f>SUM(E23:E33)/11</f>
+        <v>563.09090909090912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
       <c r="B24" s="3">
         <v>856</v>
       </c>
@@ -1213,10 +1310,13 @@
       <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
       <c r="B25" s="3">
         <v>1883</v>
       </c>
@@ -1226,10 +1326,13 @@
       <c r="D25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
       <c r="B26" s="3">
         <v>2140</v>
       </c>
@@ -1239,10 +1342,13 @@
       <c r="D26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
       <c r="B27" s="3">
         <v>1248</v>
       </c>
@@ -1252,10 +1358,13 @@
       <c r="D27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+      <c r="E27" s="5">
+        <v>6</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
       <c r="B28" s="3">
         <v>2253</v>
       </c>
@@ -1265,10 +1374,13 @@
       <c r="D28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
       <c r="B29" s="3">
         <v>1712</v>
       </c>
@@ -1278,10 +1390,13 @@
       <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
       <c r="B30" s="3">
         <v>2242</v>
       </c>
@@ -1291,10 +1406,13 @@
       <c r="D30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
       <c r="B31" s="3">
         <v>2221</v>
       </c>
@@ -1304,10 +1422,13 @@
       <c r="D31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="E31" s="5">
+        <v>6188</v>
+      </c>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
       <c r="B32" s="3">
         <v>2065</v>
       </c>
@@ -1317,10 +1438,13 @@
       <c r="D32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
       <c r="B33" s="3">
         <v>1392</v>
       </c>
@@ -1330,10 +1454,13 @@
       <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B34" s="3">
@@ -1345,10 +1472,16 @@
       <c r="D34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="E34" s="5">
+        <v>46</v>
+      </c>
+      <c r="F34" s="14">
+        <f>SUM(E34:E43)/10</f>
+        <v>349.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
       <c r="B35" s="4">
         <v>1065</v>
       </c>
@@ -1358,10 +1491,13 @@
       <c r="D35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
       <c r="B36" s="4">
         <v>1809</v>
       </c>
@@ -1371,10 +1507,13 @@
       <c r="D36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
       <c r="B37" s="3">
         <v>1806</v>
       </c>
@@ -1384,10 +1523,13 @@
       <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="E37" s="5">
+        <v>1621</v>
+      </c>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
       <c r="B38" s="3">
         <v>1777</v>
       </c>
@@ -1397,10 +1539,13 @@
       <c r="D38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
+      <c r="E38" s="5">
+        <v>601</v>
+      </c>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
       <c r="B39" s="4">
         <v>1281</v>
       </c>
@@ -1410,10 +1555,13 @@
       <c r="D39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
       <c r="B40" s="4">
         <v>2217</v>
       </c>
@@ -1423,10 +1571,13 @@
       <c r="D40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
       <c r="B41" s="3">
         <v>1927</v>
       </c>
@@ -1436,10 +1587,13 @@
       <c r="D41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
+      <c r="E41" s="5">
+        <v>924</v>
+      </c>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
       <c r="B42" s="3">
         <v>1974</v>
       </c>
@@ -1449,10 +1603,13 @@
       <c r="D42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
+      <c r="E42" s="5">
+        <v>304</v>
+      </c>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
       <c r="B43" s="3">
         <v>1437</v>
       </c>
@@ -1462,10 +1619,13 @@
       <c r="D43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="3">
@@ -1477,10 +1637,16 @@
       <c r="D44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
+      <c r="E44" s="5">
+        <v>304</v>
+      </c>
+      <c r="F44" s="14">
+        <f>SUM(E44:E46)/3</f>
+        <v>105.66666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
       <c r="B45" s="3">
         <v>1259</v>
       </c>
@@ -1490,10 +1656,13 @@
       <c r="D45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
+      <c r="E45" s="5">
+        <v>13</v>
+      </c>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="12"/>
       <c r="B46" s="3">
         <v>2195</v>
       </c>
@@ -1503,10 +1672,13 @@
       <c r="D46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="3">
@@ -1518,10 +1690,16 @@
       <c r="D47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <f>SUM(E47:E52)/6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
       <c r="B48" s="3">
         <v>1826</v>
       </c>
@@ -1531,10 +1709,13 @@
       <c r="D48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
       <c r="B49" s="3">
         <v>1111</v>
       </c>
@@ -1544,10 +1725,13 @@
       <c r="D49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="7"/>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
       <c r="B50" s="3">
         <v>1083</v>
       </c>
@@ -1557,10 +1741,13 @@
       <c r="D50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="7"/>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
       <c r="B51" s="3">
         <v>1020</v>
       </c>
@@ -1570,10 +1757,13 @@
       <c r="D51" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="7"/>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
       <c r="B52" s="3">
         <v>1386</v>
       </c>
@@ -1583,22 +1773,35 @@
       <c r="D52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="5">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="13">
         <f>SUM(E2:E52)</f>
-        <v>0</v>
+        <v>11834</v>
+      </c>
+      <c r="F53" s="17">
+        <f>SUM(E2:E52)/51</f>
+        <v>232.0392156862745</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F12:F22"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="F34:F43"/>
+    <mergeCell ref="F44:F46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="A2:A11"/>

--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014586F-A6D9-48BC-8DBF-58DBB75C6C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128AAAEF-6D10-4378-AABC-45DF68951E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -555,6 +555,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,21 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,7 +902,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -933,7 +936,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="3">
@@ -945,16 +948,16 @@
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
         <f>SUM(E2:E11)/10</f>
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3">
         <v>2226</v>
       </c>
@@ -964,13 +967,13 @@
       <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3">
         <v>2110</v>
       </c>
@@ -980,13 +983,13 @@
       <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3">
         <v>2231</v>
       </c>
@@ -996,13 +999,13 @@
       <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3">
         <v>1376</v>
       </c>
@@ -1012,13 +1015,13 @@
       <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15"/>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3">
         <v>2232</v>
       </c>
@@ -1028,13 +1031,13 @@
       <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3">
         <v>1503</v>
       </c>
@@ -1044,13 +1047,13 @@
       <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="15"/>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3">
         <v>1588</v>
       </c>
@@ -1060,13 +1063,13 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3">
         <v>2222</v>
       </c>
@@ -1076,13 +1079,13 @@
       <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3">
         <v>572</v>
       </c>
@@ -1092,13 +1095,13 @@
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="3">
@@ -1110,16 +1113,16 @@
       <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="9">
         <f>SUM(E12:E22)/11</f>
-        <v>165.72727272727272</v>
+        <v>167.27272727272728</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3">
         <v>1896</v>
       </c>
@@ -1129,13 +1132,13 @@
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="5">
-        <v>89</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="E13" s="6">
+        <v>456</v>
+      </c>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3">
         <v>1865</v>
       </c>
@@ -1145,13 +1148,13 @@
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15"/>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3">
         <v>1973</v>
       </c>
@@ -1161,13 +1164,13 @@
       <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="5">
-        <v>114</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="E15" s="6">
+        <v>288</v>
+      </c>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3">
         <v>1775</v>
       </c>
@@ -1177,13 +1180,13 @@
       <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="5">
-        <v>739</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="E16" s="6">
+        <v>500</v>
+      </c>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="3">
         <v>1567</v>
       </c>
@@ -1193,13 +1196,13 @@
       <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="5">
-        <v>75</v>
-      </c>
-      <c r="F17" s="15"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3">
         <v>2251</v>
       </c>
@@ -1209,13 +1212,13 @@
       <c r="D18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="5">
-        <v>394</v>
-      </c>
-      <c r="F18" s="15"/>
+      <c r="E18" s="6">
+        <v>116</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3">
         <v>1963</v>
       </c>
@@ -1225,13 +1228,13 @@
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="3">
         <v>1505</v>
       </c>
@@ -1241,13 +1244,13 @@
       <c r="D20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15"/>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3">
         <v>2200</v>
       </c>
@@ -1257,13 +1260,13 @@
       <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3">
         <v>1438</v>
       </c>
@@ -1273,13 +1276,13 @@
       <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="5">
-        <v>411</v>
-      </c>
-      <c r="F22" s="16"/>
+      <c r="E22" s="6">
+        <v>478</v>
+      </c>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="3">
@@ -1291,16 +1294,16 @@
       <c r="D23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
         <f>SUM(E23:E33)/11</f>
-        <v>563.09090909090912</v>
+        <v>8.0909090909090917</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3">
         <v>856</v>
       </c>
@@ -1310,13 +1313,13 @@
       <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15"/>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3">
         <v>1883</v>
       </c>
@@ -1326,13 +1329,13 @@
       <c r="D25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3">
         <v>2140</v>
       </c>
@@ -1342,13 +1345,13 @@
       <c r="D26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3">
         <v>1248</v>
       </c>
@@ -1358,13 +1361,13 @@
       <c r="D27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="5">
-        <v>6</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3">
         <v>2253</v>
       </c>
@@ -1374,13 +1377,13 @@
       <c r="D28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="3">
         <v>1712</v>
       </c>
@@ -1390,13 +1393,13 @@
       <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15"/>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="3">
         <v>2242</v>
       </c>
@@ -1406,13 +1409,13 @@
       <c r="D30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15"/>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="3">
         <v>2221</v>
       </c>
@@ -1422,13 +1425,13 @@
       <c r="D31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="5">
-        <v>6188</v>
-      </c>
-      <c r="F31" s="15"/>
+      <c r="E31" s="6">
+        <v>78</v>
+      </c>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="3">
         <v>2065</v>
       </c>
@@ -1438,13 +1441,13 @@
       <c r="D32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15"/>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3">
         <v>1392</v>
       </c>
@@ -1454,13 +1457,13 @@
       <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16"/>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B34" s="3">
@@ -1472,16 +1475,16 @@
       <c r="D34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="5">
-        <v>46</v>
-      </c>
-      <c r="F34" s="14">
+      <c r="E34" s="6">
+        <v>116</v>
+      </c>
+      <c r="F34" s="9">
         <f>SUM(E34:E43)/10</f>
-        <v>349.7</v>
+        <v>415.4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>1065</v>
       </c>
@@ -1491,13 +1494,13 @@
       <c r="D35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15"/>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>1809</v>
       </c>
@@ -1507,13 +1510,13 @@
       <c r="D36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="15"/>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="3">
         <v>1806</v>
       </c>
@@ -1523,13 +1526,13 @@
       <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="5">
-        <v>1621</v>
-      </c>
-      <c r="F37" s="15"/>
+      <c r="E37" s="6">
+        <v>2152</v>
+      </c>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="3">
         <v>1777</v>
       </c>
@@ -1539,13 +1542,13 @@
       <c r="D38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="5">
-        <v>601</v>
-      </c>
-      <c r="F38" s="15"/>
+      <c r="E38" s="6">
+        <v>945</v>
+      </c>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="4">
         <v>1281</v>
       </c>
@@ -1555,13 +1558,13 @@
       <c r="D39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="15"/>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="4">
         <v>2217</v>
       </c>
@@ -1571,13 +1574,13 @@
       <c r="D40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15"/>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="3">
         <v>1927</v>
       </c>
@@ -1587,13 +1590,13 @@
       <c r="D41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="5">
-        <v>924</v>
-      </c>
-      <c r="F41" s="15"/>
+      <c r="E41" s="6">
+        <v>850</v>
+      </c>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="3">
         <v>1974</v>
       </c>
@@ -1603,13 +1606,13 @@
       <c r="D42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="5">
-        <v>304</v>
-      </c>
-      <c r="F42" s="15"/>
+      <c r="E42" s="6">
+        <v>90</v>
+      </c>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3">
         <v>1437</v>
       </c>
@@ -1619,13 +1622,13 @@
       <c r="D43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="3">
@@ -1637,16 +1640,16 @@
       <c r="D44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="5">
-        <v>304</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="E44" s="6">
+        <v>408</v>
+      </c>
+      <c r="F44" s="9">
         <f>SUM(E44:E46)/3</f>
-        <v>105.66666666666667</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="3">
         <v>1259</v>
       </c>
@@ -1656,13 +1659,13 @@
       <c r="D45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="6">
         <v>13</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3">
         <v>2195</v>
       </c>
@@ -1672,13 +1675,13 @@
       <c r="D46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16"/>
+      <c r="E46" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="3">
@@ -1690,16 +1693,16 @@
       <c r="D47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14">
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
         <f>SUM(E47:E52)/6</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="3">
         <v>1826</v>
       </c>
@@ -1709,13 +1712,13 @@
       <c r="D48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="15"/>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="3">
         <v>1111</v>
       </c>
@@ -1725,13 +1728,13 @@
       <c r="D49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15"/>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="3">
         <v>1083</v>
       </c>
@@ -1741,13 +1744,13 @@
       <c r="D50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="15"/>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="3">
         <v>1020</v>
       </c>
@@ -1757,13 +1760,13 @@
       <c r="D51" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="15"/>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="6"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="3">
         <v>1386</v>
       </c>
@@ -1773,35 +1776,29 @@
       <c r="D52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="16"/>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="13">
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="7">
         <f>SUM(E2:E52)</f>
-        <v>11834</v>
-      </c>
-      <c r="F53" s="17">
+        <v>6515</v>
+      </c>
+      <c r="F53" s="8">
         <f>SUM(E2:E52)/51</f>
-        <v>232.0392156862745</v>
+        <v>127.74509803921569</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F12:F22"/>
-    <mergeCell ref="F23:F33"/>
-    <mergeCell ref="F34:F43"/>
-    <mergeCell ref="F44:F46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="A2:A11"/>
@@ -1809,6 +1806,12 @@
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A46"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F12:F22"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="F34:F43"/>
+    <mergeCell ref="F44:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128AAAEF-6D10-4378-AABC-45DF68951E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170F500-CDAD-4FBF-8D16-8B918BFB817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>工号</t>
   </si>
@@ -374,6 +374,27 @@
   <si>
     <t>人均次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈嘉杰</t>
+  </si>
+  <si>
+    <t>192.168.170.76</t>
+  </si>
+  <si>
+    <t>孟凡祥</t>
+  </si>
+  <si>
+    <t>192.168.22.53</t>
+  </si>
+  <si>
+    <t>陈浩</t>
+  </si>
+  <si>
+    <t>192.168.176.241</t>
+  </si>
+  <si>
+    <t>陈远锐</t>
   </si>
 </sst>
 </file>
@@ -899,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,8 +973,8 @@
         <v>1</v>
       </c>
       <c r="F2" s="9">
-        <f>SUM(E2:E11)/10</f>
-        <v>0.9</v>
+        <f>SUM(E2:E15)/10</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -984,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -1048,7 +1069,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -1064,7 +1085,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -1085,7 +1106,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3">
         <v>572</v>
       </c>
@@ -1098,284 +1119,276 @@
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="A12" s="17"/>
       <c r="B12" s="3">
-        <v>815</v>
+        <v>10263</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <f>SUM(E12:E22)/11</f>
-        <v>167.27272727272728</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="3">
-        <v>1896</v>
+        <v>10255</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="6">
-        <v>456</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="3">
-        <v>1865</v>
+        <v>10256</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="3">
-        <v>1973</v>
+        <v>10265</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="6">
-        <v>288</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="B16" s="3">
-        <v>1775</v>
+        <v>815</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6">
-        <v>500</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="9">
+        <f>SUM(E16:E26)/11</f>
+        <v>244.27272727272728</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="3">
-        <v>1567</v>
+        <v>1896</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>888</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
       <c r="B18" s="3">
-        <v>2251</v>
+        <v>1865</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="3">
-        <v>1963</v>
+        <v>1973</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="3">
-        <v>1505</v>
+        <v>1775</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="3">
-        <v>2200</v>
+        <v>1567</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3">
-        <v>1438</v>
+        <v>2251</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22" s="6">
-        <v>478</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>909</v>
+      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="A23" s="17"/>
       <c r="B23" s="3">
-        <v>850</v>
+        <v>1963</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="9">
-        <f>SUM(E23:E33)/11</f>
-        <v>8.0909090909090917</v>
-      </c>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="3">
-        <v>856</v>
+        <v>1505</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="3">
-        <v>1883</v>
+        <v>2200</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3">
-        <v>2140</v>
+        <v>1438</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="B27" s="3">
-        <v>1248</v>
+        <v>850</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E27" s="6">
-        <v>10</v>
-      </c>
-      <c r="F27" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <f>SUM(E27:E37)/11</f>
+        <v>6.8181818181818183</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="3">
-        <v>2253</v>
+        <v>856</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -1385,29 +1398,29 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="3">
-        <v>1712</v>
+        <v>1883</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="3">
-        <v>2242</v>
+        <v>2140</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -1417,29 +1430,29 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="3">
-        <v>2221</v>
+        <v>1248</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31" s="6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="3">
-        <v>2065</v>
+        <v>2253</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
@@ -1447,52 +1460,47 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3">
-        <v>1392</v>
+        <v>1712</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A34" s="17"/>
       <c r="B34" s="3">
-        <v>806</v>
+        <v>2242</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E34" s="6">
-        <v>116</v>
-      </c>
-      <c r="F34" s="9">
-        <f>SUM(E34:E43)/10</f>
-        <v>415.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
-      <c r="B35" s="4">
-        <v>1065</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>36</v>
+      <c r="B35" s="3">
+        <v>2221</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -1501,14 +1509,14 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
-      <c r="B36" s="4">
-        <v>1809</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
+      <c r="B36" s="3">
+        <v>2065</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -1516,47 +1524,52 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3">
-        <v>1806</v>
+        <v>1392</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E37" s="6">
-        <v>2152</v>
-      </c>
-      <c r="F37" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="B38" s="3">
-        <v>1777</v>
+        <v>806</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E38" s="6">
-        <v>945</v>
-      </c>
-      <c r="F38" s="10"/>
+        <v>202</v>
+      </c>
+      <c r="F38" s="9">
+        <f>SUM(E38:E47)/10</f>
+        <v>664.4</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="4">
-        <v>1281</v>
+        <v>1065</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
@@ -1566,13 +1579,13 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="4">
-        <v>2217</v>
+        <v>1809</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -1582,236 +1595,300 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="3">
-        <v>1927</v>
+        <v>1806</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E41" s="6">
-        <v>850</v>
+        <v>2371</v>
       </c>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="3">
-        <v>1974</v>
+        <v>1777</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42" s="6">
-        <v>90</v>
+        <v>1354</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="3">
-        <v>1437</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
+      <c r="A43" s="17"/>
+      <c r="B43" s="4">
+        <v>1281</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="3">
-        <v>805</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>45</v>
+      <c r="A44" s="17"/>
+      <c r="B44" s="4">
+        <v>2217</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E44" s="6">
-        <v>408</v>
-      </c>
-      <c r="F44" s="9">
-        <f>SUM(E44:E46)/3</f>
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="3">
+        <v>1927</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1704</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="3">
+        <v>1974</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="6">
+        <v>999</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="3">
+        <v>1437</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="6">
+        <v>14</v>
+      </c>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="3">
+        <v>805</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="6">
+        <v>675</v>
+      </c>
+      <c r="F48" s="9">
+        <f>SUM(E48:E50)/3</f>
+        <v>858.66666666666663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="3">
         <v>1259</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="6">
-        <v>13</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="3">
+      <c r="E49" s="6">
+        <v>677</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="18"/>
+      <c r="B50" s="3">
         <v>2195</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="6">
-        <v>2</v>
-      </c>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
+      <c r="E50" s="6">
+        <v>1224</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B51" s="3">
         <v>709</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9">
-        <f>SUM(E47:E52)/6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-      <c r="B48" s="3">
-        <v>1826</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
-      <c r="B49" s="3">
-        <v>1111</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="3">
-        <v>1083</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
-      <c r="B51" s="3">
-        <v>1020</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="9">
+        <f>SUM(E51:E56)/6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="12"/>
       <c r="B52" s="3">
+        <v>1826</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="12"/>
+      <c r="B53" s="3">
+        <v>1111</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="12"/>
+      <c r="B54" s="3">
+        <v>1083</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="12"/>
+      <c r="B56" s="3">
         <v>1386</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="7">
-        <f>SUM(E2:E52)</f>
-        <v>6515</v>
-      </c>
-      <c r="F53" s="8">
-        <f>SUM(E2:E52)/51</f>
-        <v>127.74509803921569</v>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="7">
+        <f>SUM(E2:E56)</f>
+        <v>11998</v>
+      </c>
+      <c r="F57" s="8">
+        <f>SUM(E2:E56)/51</f>
+        <v>235.25490196078431</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F12:F22"/>
-    <mergeCell ref="F23:F33"/>
-    <mergeCell ref="F34:F43"/>
-    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="F2:F15"/>
+    <mergeCell ref="F16:F26"/>
+    <mergeCell ref="F27:F37"/>
+    <mergeCell ref="F38:F47"/>
+    <mergeCell ref="F48:F50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170F500-CDAD-4FBF-8D16-8B918BFB817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A120AF-A104-4024-905D-F659C3543AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>工号</t>
   </si>
@@ -395,6 +395,30 @@
   </si>
   <si>
     <t>陈远锐</t>
+  </si>
+  <si>
+    <t>10258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王超亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈旭阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,15 +610,6 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +629,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,7 +981,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="3">
@@ -972,13 +996,13 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="16">
         <f>SUM(E2:E15)/10</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3">
         <v>2226</v>
       </c>
@@ -991,10 +1015,10 @@
       <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3">
         <v>2110</v>
       </c>
@@ -1007,10 +1031,10 @@
       <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3">
         <v>2231</v>
       </c>
@@ -1023,10 +1047,10 @@
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1376</v>
       </c>
@@ -1039,10 +1063,10 @@
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2232</v>
       </c>
@@ -1055,10 +1079,10 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>1503</v>
       </c>
@@ -1071,10 +1095,10 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>1588</v>
       </c>
@@ -1087,10 +1111,10 @@
       <c r="E9" s="6">
         <v>14</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>2222</v>
       </c>
@@ -1103,10 +1127,10 @@
       <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>572</v>
       </c>
@@ -1119,10 +1143,10 @@
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>10263</v>
       </c>
@@ -1133,10 +1157,10 @@
         <v>116</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>10255</v>
       </c>
@@ -1147,10 +1171,10 @@
         <v>118</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>10256</v>
       </c>
@@ -1161,10 +1185,10 @@
         <v>120</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3">
         <v>10265</v>
       </c>
@@ -1175,10 +1199,10 @@
         <v>56</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="3">
@@ -1193,13 +1217,13 @@
       <c r="E16" s="6">
         <v>6</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="16">
         <f>SUM(E16:E26)/11</f>
         <v>244.27272727272728</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3">
         <v>1896</v>
       </c>
@@ -1212,10 +1236,10 @@
       <c r="E17" s="6">
         <v>888</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3">
         <v>1865</v>
       </c>
@@ -1228,10 +1252,10 @@
       <c r="E18" s="6">
         <v>0</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3">
         <v>1973</v>
       </c>
@@ -1244,10 +1268,10 @@
       <c r="E19" s="6">
         <v>305</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3">
         <v>1775</v>
       </c>
@@ -1260,10 +1284,10 @@
       <c r="E20" s="6">
         <v>433</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3">
         <v>1567</v>
       </c>
@@ -1276,10 +1300,10 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3">
         <v>2251</v>
       </c>
@@ -1292,10 +1316,10 @@
       <c r="E22" s="6">
         <v>909</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3">
         <v>1963</v>
       </c>
@@ -1308,10 +1332,10 @@
       <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3">
         <v>1505</v>
       </c>
@@ -1324,10 +1348,10 @@
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3">
         <v>2200</v>
       </c>
@@ -1340,10 +1364,10 @@
       <c r="E25" s="6">
         <v>3</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3">
         <v>1438</v>
       </c>
@@ -1356,10 +1380,10 @@
       <c r="E26" s="6">
         <v>141</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="3">
@@ -1374,13 +1398,13 @@
       <c r="E27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="16">
         <f>SUM(E27:E37)/11</f>
         <v>6.8181818181818183</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3">
         <v>856</v>
       </c>
@@ -1393,10 +1417,10 @@
       <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3">
         <v>1883</v>
       </c>
@@ -1409,10 +1433,10 @@
       <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3">
         <v>2140</v>
       </c>
@@ -1425,10 +1449,10 @@
       <c r="E30" s="6">
         <v>0</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3">
         <v>1248</v>
       </c>
@@ -1441,10 +1465,10 @@
       <c r="E31" s="6">
         <v>75</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="3">
         <v>2253</v>
       </c>
@@ -1457,10 +1481,10 @@
       <c r="E32" s="6">
         <v>0</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3">
         <v>1712</v>
       </c>
@@ -1473,10 +1497,10 @@
       <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="3">
         <v>2242</v>
       </c>
@@ -1489,10 +1513,10 @@
       <c r="E34" s="6">
         <v>0</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="3">
         <v>2221</v>
       </c>
@@ -1505,10 +1529,10 @@
       <c r="E35" s="6">
         <v>0</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="3">
         <v>2065</v>
       </c>
@@ -1521,10 +1545,10 @@
       <c r="E36" s="6">
         <v>0</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="3">
         <v>1392</v>
       </c>
@@ -1537,358 +1561,390 @@
       <c r="E37" s="6">
         <v>0</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B40" s="3">
         <v>806</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E40" s="6">
         <v>202</v>
       </c>
-      <c r="F38" s="9">
-        <f>SUM(E38:E47)/10</f>
+      <c r="F40" s="16">
+        <f>SUM(E40:E49)/10</f>
         <v>664.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4">
         <v>1065</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="4">
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4">
         <v>1809</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="3">
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="3">
         <v>1806</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E43" s="6">
         <v>2371</v>
       </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="3">
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="3">
         <v>1777</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E44" s="6">
         <v>1354</v>
       </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4">
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="4">
         <v>1281</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4">
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="4">
         <v>2217</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="3">
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+      <c r="B47" s="3">
         <v>1927</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E47" s="6">
         <v>1704</v>
       </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="3">
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="14"/>
+      <c r="B48" s="3">
         <v>1974</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E48" s="6">
         <v>999</v>
       </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="3">
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="3">
         <v>1437</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E49" s="6">
         <v>14</v>
       </c>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="16" t="s">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B50" s="3">
         <v>805</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E50" s="6">
         <v>675</v>
       </c>
-      <c r="F48" s="9">
-        <f>SUM(E48:E50)/3</f>
+      <c r="F50" s="16">
+        <f>SUM(E50:E52)/3</f>
         <v>858.66666666666663</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="14"/>
+      <c r="B51" s="3">
         <v>1259</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E51" s="6">
         <v>677</v>
       </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="3">
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="3">
         <v>2195</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E52" s="6">
         <v>1224</v>
       </c>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B53" s="3">
         <v>709</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9">
-        <f>SUM(E51:E56)/6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="12"/>
-      <c r="B52" s="3">
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <f>SUM(E53:E58)/6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="3">
         <v>1826</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="12"/>
-      <c r="B53" s="3">
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="9"/>
+      <c r="B55" s="3">
         <v>1111</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
-      <c r="B54" s="3">
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="9"/>
+      <c r="B56" s="3">
         <v>1083</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="12"/>
-      <c r="B55" s="3">
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
+      <c r="B57" s="3">
         <v>1020</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
-      <c r="B56" s="3">
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="9"/>
+      <c r="B58" s="3">
         <v>1386</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="7">
-        <f>SUM(E2:E56)</f>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="7">
+        <f>SUM(E2:E58)</f>
         <v>11998</v>
       </c>
-      <c r="F57" s="8">
-        <f>SUM(E2:E56)/51</f>
+      <c r="F59" s="8">
+        <f>SUM(E2:E58)/51</f>
         <v>235.25490196078431</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F2:F15"/>
+    <mergeCell ref="F16:F26"/>
+    <mergeCell ref="F40:F49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F27:F39"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A26"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="F2:F15"/>
-    <mergeCell ref="F16:F26"/>
-    <mergeCell ref="F27:F37"/>
-    <mergeCell ref="F38:F47"/>
-    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A27:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
